--- a/bin/mia-result/Test_set_1/Pairwise_Gaussian_sdims/PG_4/PG_4.xlsx
+++ b/bin/mia-result/Test_set_1/Pairwise_Gaussian_sdims/PG_4/PG_4.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\MIALab_project\bin\mia-result\Pairwise_Gaussian_sdims\PG_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7361bdf95a53a600/Dokumente/Nic_Stuff/GitHub/MIALab_project/bin/mia-result/Pairwise_Gaussian_sdims/PG_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{10921632-0685-4CC7-B42B-2D2CCF84D1FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{10921632-0685-4CC7-B42B-2D2CCF84D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{381604D8-F6B1-448A-8ED6-8C19654DB2A3}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="10740" windowHeight="9270"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14850" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,48 +590,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,7 +647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -931,16 +942,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>117122</v>
       </c>
@@ -993,7 +1004,7 @@
         <v>0.73235350720622161</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>117122</v>
       </c>
@@ -1020,7 +1031,7 @@
         <v>4.3750751552330054E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>117122</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>4.0824683512886155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>117122</v>
       </c>
@@ -1074,7 +1085,7 @@
         <v>2.2689821900106075</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>117122</v>
       </c>
@@ -1101,7 +1112,7 @@
         <v>0.54009745288184829</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>5.8512137058471886E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1166,7 @@
         <v>20.328233374502211</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1193,7 @@
         <v>3.2596741268231542</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1220,7 @@
         <v>0.75234879162307</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>2.5089790258978003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>118528</v>
       </c>
@@ -1263,7 +1274,7 @@
         <v>3.2626002283762134</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>118528</v>
       </c>
@@ -1290,7 +1301,7 @@
         <v>0.62843699392439134</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>118528</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>0.84542064115972582</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>118528</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>2.2775042394379313E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>118528</v>
       </c>
@@ -1371,7 +1382,7 @@
         <v>2.8731303523444671</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1409,7 @@
         <v>0.40155527976570182</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1436,7 @@
         <v>0.81500329830338347</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>8.8278146513501663E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>6.1143968697197852</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>0.59081010256240984</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>118730</v>
       </c>
@@ -1520,7 +1531,7 @@
         <v>11.6619037896906</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>118730</v>
       </c>
@@ -1534,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>118730</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>11.401754250991299</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>118730</v>
       </c>
@@ -1562,7 +1573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>118730</v>
       </c>
@@ -1576,7 +1587,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1601,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1615,7 @@
         <v>17.578395831246901</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>4.5825756949558398</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1632,7 +1643,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1657,7 @@
         <v>6.7823299831252601</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>118932</v>
       </c>
@@ -1660,7 +1671,7 @@
         <v>12.7279220613578</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>118932</v>
       </c>
@@ -1674,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>118932</v>
       </c>
@@ -1688,7 +1699,7 @@
         <v>13.379088160259601</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>118932</v>
       </c>
@@ -1702,7 +1713,7 @@
         <v>14.866068747318501</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>118932</v>
       </c>
@@ -1716,7 +1727,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1741,7 @@
         <v>7.5498344352707498</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1755,7 @@
         <v>17.2046505340852</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1772,7 +1783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>6.1644140029689698</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>120111</v>
       </c>
@@ -1800,7 +1811,7 @@
         <v>9.4868329805051292</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>120111</v>
       </c>
@@ -1814,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>120111</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>11.916375287812899</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>120111</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>15.937377450509199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>120111</v>
       </c>
@@ -1856,7 +1867,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1870,7 +1881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1884,7 +1895,7 @@
         <v>17.7200451466693</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1909,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>3.1622776601683702</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1926,7 +1937,7 @@
         <v>5.3851648071345002</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>122317</v>
       </c>
@@ -1940,7 +1951,7 @@
         <v>13.3416640641263</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>122317</v>
       </c>
@@ -1954,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>122317</v>
       </c>
@@ -1968,7 +1979,7 @@
         <v>13.076696830622</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>122317</v>
       </c>
@@ -1982,7 +1993,7 @@
         <v>14.0356688476181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>122317</v>
       </c>
@@ -1996,7 +2007,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2010,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2024,7 +2035,7 @@
         <v>23.853720883753098</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2049,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +2063,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2066,7 +2077,7 @@
         <v>6.1644140029689698</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>122620</v>
       </c>
@@ -2080,7 +2091,7 @@
         <v>13.1529464379659</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>122620</v>
       </c>
@@ -2094,7 +2105,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>122620</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>14.212670403551799</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>122620</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>12.5299640861416</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>122620</v>
       </c>
@@ -2136,7 +2147,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2150,7 +2161,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>21.863211109075401</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2178,7 +2189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -2192,7 +2203,7 @@
         <v>2.8284271247461898</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2217,7 @@
         <v>6.4031242374328396</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>123117</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>13.076696830622</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>123117</v>
       </c>
@@ -2234,7 +2245,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>123117</v>
       </c>
@@ -2248,7 +2259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>123117</v>
       </c>
@@ -2262,7 +2273,7 @@
         <v>16.7928556237466</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>123117</v>
       </c>
@@ -2276,7 +2287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2290,7 +2301,7 @@
         <v>2.4494897427831699</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2304,7 +2315,7 @@
         <v>18.0554700852677</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2318,7 +2329,7 @@
         <v>3.6055512754639798</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2332,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>5.3851648071345002</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>123925</v>
       </c>
@@ -2360,7 +2371,7 @@
         <v>11.575836902790201</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>123925</v>
       </c>
@@ -2374,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>123925</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>13.4164078649987</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>123925</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>14.247806848774999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>123925</v>
       </c>
@@ -2416,7 +2427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2430,7 +2441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -2444,7 +2455,7 @@
         <v>20.5182845286831</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -2458,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -2472,7 +2483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -2486,7 +2497,7 @@
         <v>5.3851648071345002</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>124422</v>
       </c>
@@ -2500,7 +2511,7 @@
         <v>11.575836902790201</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>124422</v>
       </c>
@@ -2514,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>124422</v>
       </c>
@@ -2528,7 +2539,7 @@
         <v>11.874342087037901</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>124422</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>14.560219778561001</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>124422</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -2570,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -2584,7 +2595,7 @@
         <v>26.3058928759318</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -2612,7 +2623,7 @@
         <v>2.2360679774997898</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
